--- a/output/exp14_hyperparam_tuning_2/stats_duration.xlsx
+++ b/output/exp14_hyperparam_tuning_2/stats_duration.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp14_hyperparam_tuning_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8003D54-3407-47BB-847B-6F09A5DBE1B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057DE496-21DD-4CB8-B59D-B18068CAB1FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23925" yWindow="5550" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_duration" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,13 +614,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -936,17 +930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="21" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="17" width="8.88671875" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="21" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -1821,7 +1817,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Y12">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>B3=MIN(B$3:B$12)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/output/exp14_hyperparam_tuning_2/stats_duration.xlsx
+++ b/output/exp14_hyperparam_tuning_2/stats_duration.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I844141\Documents\Unisinos\2019-2\TCCII\workspace\TCC-II\output\exp14_hyperparam_tuning_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057DE496-21DD-4CB8-B59D-B18068CAB1FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5E2BE9-BFF1-485B-AE0F-1A7FCFC7DF26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_duration" sheetId="1" r:id="rId1"/>
+    <sheet name="stats_duration (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>exp1</t>
   </si>
@@ -83,6 +84,45 @@
   </si>
   <si>
     <t>rf_avg_veh_number_0.001_0.7_0.7999999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gamma Rate / $\epsilon$-greedy rate </t>
+  </si>
+  <si>
+    <t>0.6 / 0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7 / 0.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8 / 0.6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9 / 0.6 </t>
+  </si>
+  <si>
+    <t>0.6 / 0.7</t>
+  </si>
+  <si>
+    <t>0.7  / 0.7</t>
+  </si>
+  <si>
+    <t>0.8  / 0.7</t>
+  </si>
+  <si>
+    <t>0.9  / 0.7</t>
+  </si>
+  <si>
+    <t>0.6 / 0.8</t>
+  </si>
+  <si>
+    <t>0.7 / 0.8</t>
+  </si>
+  <si>
+    <t>0.8 / 0.8</t>
+  </si>
+  <si>
+    <t>0.9 / 0.8</t>
   </si>
 </sst>
 </file>
@@ -566,9 +606,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -614,7 +655,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -933,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1870,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:Y12">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B3=MIN(B$3:B$12)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1834,4 +1887,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5E7207-8847-418F-9818-BC8D608D6A44}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>256.739029861208</v>
+      </c>
+      <c r="C3" s="2">
+        <v>179.32311202800301</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1372</v>
+      </c>
+      <c r="E3" s="2">
+        <v>247.82290796624201</v>
+      </c>
+      <c r="F3" s="2">
+        <v>117.625801532529</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>261.11615028739601</v>
+      </c>
+      <c r="C4" s="2">
+        <v>174.02069095082501</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1184</v>
+      </c>
+      <c r="E4" s="2">
+        <v>248.347005918093</v>
+      </c>
+      <c r="F4" s="2">
+        <v>113.912251122687</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
+        <v>257.08313472592101</v>
+      </c>
+      <c r="C5" s="2">
+        <v>174.64180906154701</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1543</v>
+      </c>
+      <c r="E5" s="2">
+        <v>247.959410806965</v>
+      </c>
+      <c r="F5" s="2">
+        <v>117.077230311462</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>262.28136828823699</v>
+      </c>
+      <c r="C6" s="2">
+        <v>173.64162193955499</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1294</v>
+      </c>
+      <c r="E6" s="2">
+        <v>246.578734513596</v>
+      </c>
+      <c r="F6" s="2">
+        <v>115.254599135536</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>257.44427309687302</v>
+      </c>
+      <c r="C7" s="2">
+        <v>171.357278232243</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1550</v>
+      </c>
+      <c r="E7" s="2">
+        <v>249.45501585255599</v>
+      </c>
+      <c r="F7" s="2">
+        <v>117.581471816579</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>267.46284873124898</v>
+      </c>
+      <c r="C8" s="2">
+        <v>169.328830514212</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1205</v>
+      </c>
+      <c r="E8" s="2">
+        <v>251.779245712517</v>
+      </c>
+      <c r="F8" s="2">
+        <v>120.46872605133601</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>263.55614748352701</v>
+      </c>
+      <c r="C9" s="2">
+        <v>163.28137106145101</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1007</v>
+      </c>
+      <c r="E9" s="2">
+        <v>252.04337362636701</v>
+      </c>
+      <c r="F9" s="2">
+        <v>121.90919065429399</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1091.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2">
+        <v>273.07360157016598</v>
+      </c>
+      <c r="C10" s="2">
+        <v>172.235368820053</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1139</v>
+      </c>
+      <c r="E10" s="2">
+        <v>251.510047982673</v>
+      </c>
+      <c r="F10" s="2">
+        <v>111.115312360508</v>
+      </c>
+      <c r="G10" s="2">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
+        <v>266.78900883218802</v>
+      </c>
+      <c r="C11" s="2">
+        <v>181.238788776212</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1375</v>
+      </c>
+      <c r="E11" s="2">
+        <v>249.18827108983501</v>
+      </c>
+      <c r="F11" s="2">
+        <v>120.560807024356</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
+        <v>259.92913220243901</v>
+      </c>
+      <c r="C12" s="2">
+        <v>167.694425949113</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1189</v>
+      </c>
+      <c r="E12" s="2">
+        <v>246.799731852832</v>
+      </c>
+      <c r="F12" s="2">
+        <v>112.484384683142</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2">
+        <v>266.245</v>
+      </c>
+      <c r="C13" s="2">
+        <v>174.25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E13" s="2">
+        <v>249.67</v>
+      </c>
+      <c r="F13" s="2">
+        <v>114.364</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>279.02</v>
+      </c>
+      <c r="C14" s="2">
+        <v>171.34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1355</v>
+      </c>
+      <c r="E14" s="2">
+        <v>251.98</v>
+      </c>
+      <c r="F14" s="2">
+        <v>116.64</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1187</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:G14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B3=MIN(B$3:B$12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>